--- a/de7.xlsx
+++ b/de7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tien Cao-hoang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\chtien18.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -425,6 +425,51 @@
           <a:miter lim="800000"/>
           <a:headEnd/>
           <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>692728</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>97847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>675410</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>207817</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect l="13978" t="30733" r="16401" b="15689"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692728" y="669347"/>
+          <a:ext cx="9057409" cy="3989243"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
@@ -698,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
